--- a/Exercises.xlsx
+++ b/Exercises.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carterbacon/code/python/data_science_course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B84916-508A-1746-834C-1E06CA7DF9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C1C059-1AA5-B34D-A5B7-DD7CB25B961F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44500" yWindow="-2620" windowWidth="28040" windowHeight="17440" xr2:uid="{2B48785B-C6E9-8046-B019-A044E3A299D5}"/>
+    <workbookView minimized="1" xWindow="44500" yWindow="-2620" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{2B48785B-C6E9-8046-B019-A044E3A299D5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="r" sheetId="1" r:id="rId1"/>
+    <sheet name="formulas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Minutes Running</t>
   </si>
@@ -156,6 +157,24 @@
   </si>
   <si>
     <t>No correlation</t>
+  </si>
+  <si>
+    <t>Standardized Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Zx)i </t>
+  </si>
+  <si>
+    <t>(Xi - μx) / σx</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>√ σ  ^ 2</t>
+  </si>
+  <si>
+    <t>σ (Sq. Root of variance)</t>
   </si>
 </sst>
 </file>
@@ -418,7 +437,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>'r'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -465,7 +484,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$10</c:f>
+              <c:f>'r'!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -498,7 +517,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$10</c:f>
+              <c:f>'r'!$C$3:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1619,8 +1638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44492A2-3850-1641-845E-EDB8081197D4}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2167,4 +2186,67 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A79748-0A23-854B-B06F-DAA90CA7E9B3}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>